--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ephb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H2">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.39073445222373</v>
+        <v>1.501929333333333</v>
       </c>
       <c r="N2">
-        <v>1.39073445222373</v>
+        <v>4.505788</v>
       </c>
       <c r="O2">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="P2">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="Q2">
-        <v>1.592379969241902</v>
+        <v>0.1404819589071111</v>
       </c>
       <c r="R2">
-        <v>1.592379969241902</v>
+        <v>1.264337630164</v>
       </c>
       <c r="S2">
-        <v>0.5536238752157414</v>
+        <v>0.03606124816080065</v>
       </c>
       <c r="T2">
-        <v>0.5536238752157414</v>
+        <v>0.03606124816080065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H3">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.45014124967763</v>
+        <v>0.461258</v>
       </c>
       <c r="N3">
-        <v>0.45014124967763</v>
+        <v>1.383774</v>
       </c>
       <c r="O3">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="P3">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="Q3">
-        <v>0.5154081774346261</v>
+        <v>0.04314345952466667</v>
       </c>
       <c r="R3">
-        <v>0.5154081774346261</v>
+        <v>0.388291135722</v>
       </c>
       <c r="S3">
-        <v>0.1791923272214266</v>
+        <v>0.01107478150602375</v>
       </c>
       <c r="T3">
-        <v>0.1791923272214266</v>
+        <v>0.01107478150602375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H4">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I4">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J4">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.39073445222373</v>
+        <v>1.501929333333333</v>
       </c>
       <c r="N4">
-        <v>1.39073445222373</v>
+        <v>4.505788</v>
       </c>
       <c r="O4">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="P4">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="Q4">
-        <v>0.5805795858907964</v>
+        <v>2.054215283284889</v>
       </c>
       <c r="R4">
-        <v>0.5805795858907964</v>
+        <v>18.487937549564</v>
       </c>
       <c r="S4">
-        <v>0.2018505171005357</v>
+        <v>0.5273101804853607</v>
       </c>
       <c r="T4">
-        <v>0.2018505171005357</v>
+        <v>0.5273101804853607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H5">
+        <v>4.103153</v>
+      </c>
+      <c r="I5">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J5">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.461258</v>
+      </c>
+      <c r="N5">
+        <v>1.383774</v>
+      </c>
+      <c r="O5">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="P5">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="Q5">
+        <v>0.6308707154913333</v>
+      </c>
+      <c r="R5">
+        <v>5.677836439422</v>
+      </c>
+      <c r="S5">
+        <v>0.1619423989080156</v>
+      </c>
+      <c r="T5">
+        <v>0.1619423989080156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.41746257523316</v>
-      </c>
-      <c r="H5">
-        <v>0.41746257523316</v>
-      </c>
-      <c r="I5">
-        <v>0.267183797562832</v>
-      </c>
-      <c r="J5">
-        <v>0.267183797562832</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.45014124967763</v>
-      </c>
-      <c r="N5">
-        <v>0.45014124967763</v>
-      </c>
-      <c r="O5">
-        <v>0.2445256076837229</v>
-      </c>
-      <c r="P5">
-        <v>0.2445256076837229</v>
-      </c>
-      <c r="Q5">
-        <v>0.1879171253090963</v>
-      </c>
-      <c r="R5">
-        <v>0.1879171253090963</v>
-      </c>
-      <c r="S5">
-        <v>0.06533328046229629</v>
-      </c>
-      <c r="T5">
-        <v>0.06533328046229629</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.523097</v>
+      </c>
+      <c r="H6">
+        <v>1.569291</v>
+      </c>
+      <c r="I6">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J6">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.501929333333333</v>
+      </c>
+      <c r="N6">
+        <v>4.505788</v>
+      </c>
+      <c r="O6">
+        <v>0.7650463650777426</v>
+      </c>
+      <c r="P6">
+        <v>0.7650463650777426</v>
+      </c>
+      <c r="Q6">
+        <v>0.7856547284786667</v>
+      </c>
+      <c r="R6">
+        <v>7.070892556307999</v>
+      </c>
+      <c r="S6">
+        <v>0.2016749364315813</v>
+      </c>
+      <c r="T6">
+        <v>0.2016749364315813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.523097</v>
+      </c>
+      <c r="H7">
+        <v>1.569291</v>
+      </c>
+      <c r="I7">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J7">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.461258</v>
+      </c>
+      <c r="N7">
+        <v>1.383774</v>
+      </c>
+      <c r="O7">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="P7">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="Q7">
+        <v>0.241282676026</v>
+      </c>
+      <c r="R7">
+        <v>2.171544084234</v>
+      </c>
+      <c r="S7">
+        <v>0.0619364545082181</v>
+      </c>
+      <c r="T7">
+        <v>0.0619364545082181</v>
       </c>
     </row>
   </sheetData>
